--- a/doc/需求list.xlsx
+++ b/doc/需求list.xlsx
@@ -616,7 +616,7 @@
   <dimension ref="A2:L32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H19" sqref="H19"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -701,6 +701,9 @@
       <c r="J3" s="3">
         <v>41985</v>
       </c>
+      <c r="K3" s="3">
+        <v>42005</v>
+      </c>
     </row>
     <row r="4" spans="1:12" ht="27" x14ac:dyDescent="0.15">
       <c r="B4" s="5" t="s">
@@ -791,6 +794,9 @@
       <c r="J6" s="3">
         <v>41985</v>
       </c>
+      <c r="K6" s="3">
+        <v>42005</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
@@ -1030,6 +1036,9 @@
       </c>
       <c r="J14" s="3">
         <v>41644</v>
+      </c>
+      <c r="K14" s="3">
+        <v>42005</v>
       </c>
       <c r="L14" t="s">
         <v>48</v>
